--- a/house_leakiness.xlsx
+++ b/house_leakiness.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="leakiness" sheetId="2" r:id="rId1"/>
-    <sheet name="consommation granulés" sheetId="1" r:id="rId2"/>
+    <sheet name="conduction" sheetId="2" r:id="rId1"/>
+    <sheet name="ventilation" sheetId="3" r:id="rId2"/>
+    <sheet name="consommation granulés" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>tonnes par an</t>
   </si>
@@ -112,6 +113,27 @@
   </si>
   <si>
     <t>Fenêtre 6 (salon)</t>
+  </si>
+  <si>
+    <t>Pièce</t>
+  </si>
+  <si>
+    <t>Cuisine</t>
+  </si>
+  <si>
+    <t>Chambres</t>
+  </si>
+  <si>
+    <t>Salon</t>
+  </si>
+  <si>
+    <t>Autres</t>
+  </si>
+  <si>
+    <t>Volume (m³)</t>
+  </si>
+  <si>
+    <t>N (nombre par heure)</t>
   </si>
 </sst>
 </file>
@@ -524,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +808,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3">
+        <f>3*4*2</f>
+        <v>24</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="8">
+        <f>1/3*B2*C2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3">
+        <f>2.8*3*2</f>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:D5" si="0">1/3*B3*C3</f>
+        <v>11.199999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3">
+        <f>4.5 * 6.6 * 2</f>
+        <v>59.4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>39.599999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3">
+        <f>8.5 * 2 / 2 * 8.5</f>
+        <v>72.25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>12.041666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
